--- a/data_impute_project/data/terrestrial_mammals.xlsx
+++ b/data_impute_project/data/terrestrial_mammals.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>K</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/terrestrial_mammals.xlsx
+++ b/data_impute_project/data/terrestrial_mammals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +487,11 @@
         <v>17.25</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hb 47</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -500,6 +510,11 @@
         <v>17.78</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hb 48</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -518,6 +533,11 @@
         <v>17.51</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hb 21</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -536,6 +556,11 @@
         <v>16.63</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hb 22</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +579,11 @@
         <v>16.12</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hb 17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +602,11 @@
         <v>17.28</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S 6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -590,6 +625,11 @@
         <v>16.54</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hb 7</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -608,6 +648,11 @@
         <v>17.64</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hb 46</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -626,6 +671,11 @@
         <v>15.84</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hb 1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -646,6 +696,11 @@
       <c r="F11" t="n">
         <v>12.33</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -666,6 +721,11 @@
       <c r="F12" t="n">
         <v>13.95</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -684,6 +744,11 @@
         <v>16.47</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hb 5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -704,6 +769,11 @@
       <c r="F14" t="n">
         <v>10.77</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -722,6 +792,11 @@
         <v>16.67</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S 25</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -740,6 +815,11 @@
         <v>14.68</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S 26</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -758,6 +838,11 @@
         <v>15.63</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>S 27</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -778,6 +863,11 @@
       <c r="F18" t="n">
         <v>9.970000000000001</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -796,6 +886,11 @@
         <v>16.87</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hb 103</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -814,6 +909,11 @@
         <v>16.97</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hb 104</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -832,6 +932,11 @@
         <v>16.94</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hb 105</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -850,6 +955,11 @@
         <v>16.18</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hb 106</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -870,6 +980,11 @@
       <c r="F23" t="n">
         <v>14.65</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hb 107</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -888,6 +1003,11 @@
         <v>16.37</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hb 63</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -906,6 +1026,11 @@
         <v>16.01</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hb 65</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -926,6 +1051,11 @@
       <c r="F26" t="n">
         <v>14.77</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hb 66</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -944,6 +1074,11 @@
         <v>15.34</v>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hb 67</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -962,6 +1097,11 @@
         <v>16.42</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hb 68</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -982,6 +1122,11 @@
       <c r="F29" t="n">
         <v>12.94</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hb 69</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1000,6 +1145,11 @@
         <v>16.57</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hb 70</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1018,6 +1168,11 @@
         <v>15.44</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hb 71</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1036,6 +1191,11 @@
         <v>15.18</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hb 72</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1054,6 +1214,11 @@
         <v>17.52</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hb 93</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1072,6 +1237,11 @@
         <v>16.39</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hb 94</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1092,6 +1262,11 @@
       <c r="F35" t="n">
         <v>12.31</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hb 95</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1110,6 +1285,11 @@
         <v>15.99</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hb 96</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1128,6 +1308,11 @@
         <v>16.03</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hb 97</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1146,6 +1331,11 @@
         <v>15.23</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hb 98</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1166,6 +1356,11 @@
       <c r="F39" t="n">
         <v>16.23</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hb 99</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1184,6 +1379,11 @@
         <v>16.16</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hb 100</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1202,6 +1402,11 @@
         <v>16.34</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hb 101</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1220,6 +1425,11 @@
         <v>16.31</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hb 102</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1238,6 +1448,11 @@
         <v>16.64</v>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>S 29</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1256,6 +1471,11 @@
         <v>16.52</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>S 30</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1274,6 +1494,11 @@
         <v>16.85</v>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hb 83</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1292,6 +1517,11 @@
         <v>16.03</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hb 84</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1310,6 +1540,11 @@
         <v>17.05</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hb 85</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1328,6 +1563,11 @@
         <v>17.41</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hb 86</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1346,6 +1586,11 @@
         <v>16.49</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hb 87</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1364,6 +1609,11 @@
         <v>16.71</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hb 88</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1382,6 +1632,11 @@
         <v>17.2</v>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hb 89</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1400,6 +1655,11 @@
         <v>17.44</v>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hb 90</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1418,6 +1678,11 @@
         <v>18.53</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hb 91</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1438,6 +1703,11 @@
       <c r="F54" t="n">
         <v>13.91</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1458,6 +1728,11 @@
       <c r="F55" t="n">
         <v>13.01</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1478,6 +1753,11 @@
       <c r="F56" t="n">
         <v>12.56</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1496,6 +1776,11 @@
         <v>16.41</v>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1514,6 +1799,11 @@
         <v>16.91</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1532,6 +1822,11 @@
         <v>16.47</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1550,6 +1845,11 @@
         <v>16.4</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1570,6 +1870,11 @@
       <c r="F61" t="n">
         <v>12.97</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1588,6 +1893,11 @@
         <v>16.65</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1606,6 +1916,11 @@
         <v>16.71</v>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1624,6 +1939,11 @@
         <v>16.88</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1642,6 +1962,11 @@
         <v>17.18</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1660,6 +1985,11 @@
         <v>17.07</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1680,6 +2010,11 @@
       <c r="F67" t="n">
         <v>14.11</v>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1698,6 +2033,11 @@
         <v>17.66</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1716,6 +2056,11 @@
         <v>17.51</v>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1734,6 +2079,11 @@
         <v>17.62</v>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1752,6 +2102,11 @@
         <v>17.13</v>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1770,6 +2125,11 @@
         <v>17.18</v>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1788,6 +2148,11 @@
         <v>16.21</v>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hb 12</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1806,6 +2171,11 @@
         <v>16.1</v>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hb 13</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1824,6 +2194,11 @@
         <v>16.51</v>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Hb 14</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1842,6 +2217,11 @@
         <v>16.38</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Hb 15</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1860,6 +2240,11 @@
         <v>17.96</v>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>S 18</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1878,6 +2263,11 @@
         <v>17.28</v>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>S 19</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1898,6 +2288,11 @@
       <c r="F79" t="n">
         <v>13.16</v>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>S 21</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1918,6 +2313,11 @@
       <c r="F80" t="n">
         <v>8.15</v>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>S 22</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1936,6 +2336,11 @@
         <v>17.6</v>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1954,6 +2359,11 @@
         <v>16.71</v>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1972,6 +2382,11 @@
         <v>16.38</v>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1990,6 +2405,11 @@
         <v>16.54</v>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2008,6 +2428,11 @@
         <v>17.41</v>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2026,6 +2451,11 @@
         <v>17.03</v>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2046,6 +2476,11 @@
       <c r="F87" t="n">
         <v>12.54</v>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2064,6 +2499,11 @@
       <c r="F88" t="n">
         <v>13.12</v>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>S 4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2084,6 +2524,11 @@
       <c r="F89" t="n">
         <v>13.73</v>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2102,6 +2547,11 @@
         <v>19.73</v>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2122,6 +2572,11 @@
       <c r="F91" t="n">
         <v>13.76</v>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2138,6 +2593,11 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hb 75</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2156,6 +2616,11 @@
         <v>19.72</v>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2174,6 +2639,11 @@
         <v>19.64</v>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2192,6 +2662,11 @@
         <v>18.32</v>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2212,6 +2687,11 @@
       <c r="F96" t="n">
         <v>12.2</v>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2230,6 +2710,11 @@
         <v>16.44</v>
       </c>
       <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hb 31</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2250,6 +2735,11 @@
       <c r="F98" t="n">
         <v>10.67</v>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Hb 32</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2268,6 +2758,11 @@
         <v>15.78</v>
       </c>
       <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Hb 33</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2286,6 +2781,11 @@
         <v>15.27</v>
       </c>
       <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>S 13</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2304,6 +2804,11 @@
         <v>16.01</v>
       </c>
       <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>S 14</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2322,6 +2827,11 @@
       <c r="F102" t="n">
         <v>12.16</v>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>S 15</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2342,6 +2852,11 @@
       <c r="F103" t="n">
         <v>15.03</v>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>S 16</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2360,6 +2875,11 @@
         <v>16.32</v>
       </c>
       <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Hb 10</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2378,6 +2898,11 @@
         <v>16.08</v>
       </c>
       <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Hb 11</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
